--- a/src/main/webapp/WEB-INF/print/excel/EP_ExpressImportTemplate.xlsx
+++ b/src/main/webapp/WEB-INF/print/excel/EP_ExpressImportTemplate.xlsx
@@ -20,7 +20,35 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>关联号或包裹号，至少输入一个</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>关联号或包裹号，至少输入一个</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>安信达快递</t>
   </si>
@@ -330,13 +358,17 @@
   </si>
   <si>
     <t>芝麻开门</t>
+  </si>
+  <si>
+    <t>关联号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +403,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -725,36 +764,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="1" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
